--- a/life_2019/result_life_2019.xlsx
+++ b/life_2019/result_life_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/ORA_final_project/life_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF23CC73-2B8B-4140-9C41-B34C2A43A9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700B4E0D-65D0-274E-A5ED-F481D37D98BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="27740" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="43">
   <si>
     <t>X1</t>
   </si>
@@ -154,20 +154,12 @@
   <si>
     <t>ineff_p3</t>
   </si>
-  <si>
-    <t>Infeasible or unbounded model</t>
-  </si>
-  <si>
-    <t>Warning: Model contains large matrix coefficients 
-Consider reformulating model or setting NumericFocus parameter to avoid numerical issues.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,12 +181,6 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,14 +218,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,13 +1475,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8DAC86-2538-D34A-9EB4-3ED82F7D9A48}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="191" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD25"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="10" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2328,13 +2311,13 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="177" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B1" sqref="B1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="10" width="11.59765625" customWidth="1"/>
+    <col min="2" max="10" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3162,14 +3145,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2624E320-415D-A941-BA3F-93F868F505F5}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18.59765625" customWidth="1"/>
-    <col min="2" max="10" width="10.796875" customWidth="1"/>
+    <col min="2" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3995,25 +3978,831 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808B7E3E-89E3-D746-9CD7-EFEFAB69C753}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A2" zoomScale="180" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="107.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="2" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="57">
-      <c r="A1" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="18">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
+    <row r="1" spans="1:10">
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.22681218966842731</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3.3546762684988178E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.41792508036536041</v>
+      </c>
+      <c r="F2">
+        <v>0.54271016582719211</v>
+      </c>
+      <c r="G2">
+        <v>0.41792508036536041</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.45728983317280802</v>
+      </c>
+      <c r="J2">
+        <v>0.31589797615876469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.29259786297742169</v>
+      </c>
+      <c r="C3">
+        <v>0.76245477849280763</v>
+      </c>
+      <c r="D3">
+        <v>7.8184964395809659E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.69022706737177986</v>
+      </c>
+      <c r="F3">
+        <v>0.42391537047592848</v>
+      </c>
+      <c r="G3">
+        <v>0.69022706737177986</v>
+      </c>
+      <c r="H3">
+        <v>0.1216092032694103</v>
+      </c>
+      <c r="I3">
+        <v>0.44424564465486432</v>
+      </c>
+      <c r="J3">
+        <v>0.13131750749850679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.1150063405828905</v>
+      </c>
+      <c r="C4">
+        <v>0.21141645983448279</v>
+      </c>
+      <c r="D4">
+        <v>0.116746194421947</v>
+      </c>
+      <c r="E4">
+        <v>0.68998622618445282</v>
+      </c>
+      <c r="F4">
+        <v>0.16667918317567409</v>
+      </c>
+      <c r="G4">
+        <v>0.68998622618445282</v>
+      </c>
+      <c r="H4">
+        <v>0.41046131224642313</v>
+      </c>
+      <c r="I4">
+        <v>0.42285950357790292</v>
+      </c>
+      <c r="J4">
+        <v>5.1672842592783617E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.86381417227999258</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.86381417227999191</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.31621868445091739</v>
+      </c>
+      <c r="C6">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="D6">
+        <v>5.7359659516305957E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.58923663612009947</v>
+      </c>
+      <c r="F6">
+        <v>0.53665822025782017</v>
+      </c>
+      <c r="G6">
+        <v>0.58923663612009947</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.4525853885109139</v>
+      </c>
+      <c r="J6">
+        <v>0.2204395358069027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.46723744316118387</v>
+      </c>
+      <c r="C7">
+        <v>0.85375250168268402</v>
+      </c>
+      <c r="D7">
+        <v>1.005082097061984</v>
+      </c>
+      <c r="E7">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F7">
+        <v>0.46723744316118387</v>
+      </c>
+      <c r="G7">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H7">
+        <v>0.1463965860339019</v>
+      </c>
+      <c r="I7">
+        <v>1.942565584731441E-3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.17751813250444781</v>
+      </c>
+      <c r="C8">
+        <v>0.52588940859177569</v>
+      </c>
+      <c r="D8">
+        <v>1.3071943454267281E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.75714102468561251</v>
+      </c>
+      <c r="F8">
+        <v>0.234458478297565</v>
+      </c>
+      <c r="G8">
+        <v>0.75714102468561251</v>
+      </c>
+      <c r="H8">
+        <v>0.25621223036894741</v>
+      </c>
+      <c r="I8">
+        <v>0.49175420336512521</v>
+      </c>
+      <c r="J8">
+        <v>5.6940345793117193E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.20965043667117689</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>-0.45041333468468819</v>
+      </c>
+      <c r="E9">
+        <v>0.37808163544550422</v>
+      </c>
+      <c r="F9">
+        <v>0.55451102887909354</v>
+      </c>
+      <c r="G9">
+        <v>0.37808163544550422</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.32356684008961067</v>
+      </c>
+      <c r="J9">
+        <v>0.34486059220791682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.20443213846358471</v>
+      </c>
+      <c r="C10">
+        <v>0.53996673050606581</v>
+      </c>
+      <c r="D10">
+        <v>7.4566296533658816E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.66905544113752424</v>
+      </c>
+      <c r="F10">
+        <v>0.30555336059446792</v>
+      </c>
+      <c r="G10">
+        <v>0.66905544113752424</v>
+      </c>
+      <c r="H10">
+        <v>0.23496408541456509</v>
+      </c>
+      <c r="I10">
+        <v>0.44689027870540732</v>
+      </c>
+      <c r="J10">
+        <v>0.1011212221308832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.18238397906552881</v>
+      </c>
+      <c r="C11">
+        <v>0.86178216266035834</v>
+      </c>
+      <c r="D11">
+        <v>1.0967563499390589E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.49513711076353328</v>
+      </c>
+      <c r="F11">
+        <v>0.36835045303770708</v>
+      </c>
+      <c r="G11">
+        <v>0.49513711076353328</v>
+      </c>
+      <c r="H11">
+        <v>5.8158471775789367E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.57349107418650347</v>
+      </c>
+      <c r="J11">
+        <v>0.1859664739721783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.34109636902867341</v>
+      </c>
+      <c r="C12">
+        <v>0.62516245702868378</v>
+      </c>
+      <c r="D12">
+        <v>5.7383367337472549E-3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.34109636902867341</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.2031142738080137</v>
+      </c>
+      <c r="I12">
+        <v>0.45578935616331301</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.77766982840603305</v>
+      </c>
+      <c r="C13">
+        <v>0.5574470864926323</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.99999999999996403</v>
+      </c>
+      <c r="F13">
+        <v>0.77766982840606103</v>
+      </c>
+      <c r="G13">
+        <v>0.99999999999996403</v>
+      </c>
+      <c r="H13">
+        <v>0.22233017059393931</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.33926153470865711</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.64801250487226325</v>
+      </c>
+      <c r="E14">
+        <v>0.33944886158961912</v>
+      </c>
+      <c r="F14">
+        <v>0.9994481440294577</v>
+      </c>
+      <c r="G14">
+        <v>0.33944886158961912</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>5.5185497054239152E-4</v>
+      </c>
+      <c r="J14">
+        <v>0.66018660932080064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.17988205135050711</v>
+      </c>
+      <c r="C15">
+        <v>0.43190376679677278</v>
+      </c>
+      <c r="D15">
+        <v>0.1141757303536997</v>
+      </c>
+      <c r="E15">
+        <v>0.64002109119180439</v>
+      </c>
+      <c r="F15">
+        <v>0.28105644302368649</v>
+      </c>
+      <c r="G15">
+        <v>0.64002109119180439</v>
+      </c>
+      <c r="H15">
+        <v>0.29847528083143832</v>
+      </c>
+      <c r="I15">
+        <v>0.42046827514487511</v>
+      </c>
+      <c r="J15">
+        <v>0.1011743916731794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.16021164716004321</v>
+      </c>
+      <c r="C16">
+        <v>9.1456160657040833E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.36072129928522217</v>
+      </c>
+      <c r="E16">
+        <v>0.74163579121709344</v>
+      </c>
+      <c r="F16">
+        <v>0.21602469710519359</v>
+      </c>
+      <c r="G16">
+        <v>0.74163579121709344</v>
+      </c>
+      <c r="H16">
+        <v>0.48781447930293209</v>
+      </c>
+      <c r="I16">
+        <v>0.29616082259187437</v>
+      </c>
+      <c r="J16">
+        <v>5.5813049945151669E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>8.4622016007183984E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.18153353245874321</v>
+      </c>
+      <c r="D17">
+        <v>8.8801872548944061E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.61275855148984826</v>
+      </c>
+      <c r="F17">
+        <v>0.1381000979936319</v>
+      </c>
+      <c r="G17">
+        <v>0.61275855148984826</v>
+      </c>
+      <c r="H17">
+        <v>0.41951518956375711</v>
+      </c>
+      <c r="I17">
+        <v>0.44238471144261099</v>
+      </c>
+      <c r="J17">
+        <v>5.347808198644792E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>6.426716383089115E-2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2.9804288967421148E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.0000000000000431</v>
+      </c>
+      <c r="F18">
+        <v>6.4267163830888402E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.0000000000000431</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.93573283516911165</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.1460913785485394</v>
+      </c>
+      <c r="C19">
+        <v>0.46046730707546468</v>
+      </c>
+      <c r="D19">
+        <v>1.1992143536739309E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.40504473339079622</v>
+      </c>
+      <c r="F19">
+        <v>0.36067961512682389</v>
+      </c>
+      <c r="G19">
+        <v>0.40504473339079622</v>
+      </c>
+      <c r="H19">
+        <v>0.27087472681745411</v>
+      </c>
+      <c r="I19">
+        <v>0.36844565705572202</v>
+      </c>
+      <c r="J19">
+        <v>0.21458823657828491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.24653467505962501</v>
+      </c>
+      <c r="C20">
+        <v>0.50017791093461883</v>
+      </c>
+      <c r="D20">
+        <v>1.974621791861815E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.94267812499129922</v>
+      </c>
+      <c r="F20">
+        <v>0.26152582575510652</v>
+      </c>
+      <c r="G20">
+        <v>0.94267812499129922</v>
+      </c>
+      <c r="H20">
+        <v>0.25458404987702171</v>
+      </c>
+      <c r="I20">
+        <v>0.46881393228474971</v>
+      </c>
+      <c r="J20">
+        <v>1.499115069548148E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>6.507844444023192E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.1122785834472539</v>
+      </c>
+      <c r="D21">
+        <v>9.2683309342070901E-3</v>
+      </c>
+      <c r="E21">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="F21">
+        <v>6.5078444440231947E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="H21">
+        <v>0.46004906979880472</v>
+      </c>
+      <c r="I21">
+        <v>0.47487248476096339</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.63044508505521435</v>
+      </c>
+      <c r="C22">
+        <v>0.26496880654570942</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.99999999999993661</v>
+      </c>
+      <c r="F22">
+        <v>0.63044508505525432</v>
+      </c>
+      <c r="G22">
+        <v>0.99999999999993661</v>
+      </c>
+      <c r="H22">
+        <v>0.36955491394474571</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.123806504464957</v>
+      </c>
+      <c r="C23">
+        <v>1.477237217649105E-2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0.26307868797983341</v>
+      </c>
+      <c r="F23">
+        <v>0.47060636274135409</v>
+      </c>
+      <c r="G23">
+        <v>0.26307868797983341</v>
+      </c>
+      <c r="H23">
+        <v>0.52939363625864599</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.34679985827639692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <f>AVERAGE(B2:B23)</f>
+        <v>0.28248354899482397</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:J24" si="0">AVERAGE(C2:C23)</f>
+        <v>0.59070136479007207</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.28306240327429655</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.71052073017836836</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.41226754329649945</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0.71052073017836836</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.21561398545026317</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0.33990205733780138</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0.12978399430167256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <f>_xlfn.STDEV.P(B2:B23)</f>
+        <v>0.21473359741911108</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:J25" si="1">_xlfn.STDEV.P(C2:C23)</f>
+        <v>0.33466249283656407</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.42920853268851383</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0.24763876718664726</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.24283495821471246</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.24763876718664726</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0.17406336541288228</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0.23818376131866273</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.16283213398926399</v>
       </c>
     </row>
   </sheetData>
